--- a/docs/fdhf.xlsx
+++ b/docs/fdhf.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,27 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>hsjkhdkjdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ududsuoiu oiu</t>
+  </si>
+  <si>
+    <t>su udisui oudoiu oi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,17 +62,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +118,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +155,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +363,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/fdhf.xlsx
+++ b/docs/fdhf.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:D6"/>
+  <dimension ref="D4:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,6 +387,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5454654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/fdhf.xlsx
+++ b/docs/fdhf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hsjkhdkjdh</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>su udisui oudoiu oi</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:D7"/>
+  <dimension ref="D4:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +395,11 @@
         <v>5454654</v>
       </c>
     </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/fdhf.xlsx
+++ b/docs/fdhf.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hsjkhdkjdh</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>jjfldsjfsjflfjsljf lsjfljs ljslfj</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,7 +161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:D8"/>
+  <dimension ref="D4:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +403,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>54644464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
